--- a/po_analysis_by_asin/B0DGVBSLLP_po_data.xlsx
+++ b/po_analysis_by_asin/B0DGVBSLLP_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45558</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>1200</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45572</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>120</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>20</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>20</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45593</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>270</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45600</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>10</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45614</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>1260</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>1200</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>430</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45597</v>
+        <v>45626.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>1270</v>

--- a/po_analysis_by_asin/B0DGVBSLLP_po_data.xlsx
+++ b/po_analysis_by_asin/B0DGVBSLLP_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -533,7 +534,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -559,6 +560,257 @@
       </c>
       <c r="B4" t="n">
         <v>1270</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>389</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-277.9026598592412</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1001.56888963263</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>402</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-233.3172966593288</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1044.412280409216</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>408</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-233.8048571030846</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1089.06677877703</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>414</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-260.1288001162836</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1028.330496663663</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>421</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-197.8365305642837</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1048.630268425087</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>427</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-219.5501954072548</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1081.307291174481</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>440</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-197.1934662729422</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1073.335168097889</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>446</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-204.6801817754492</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1039.171772024048</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>453</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-188.9747188899827</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1090.869377239449</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>459</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-182.0605373835199</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1109.057406904045</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>465</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-138.7903252124046</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1127.633980533924</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>472</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-170.805277107265</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1056.035828010919</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>478</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-189.6709322259946</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1102.572895242658</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>485</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-153.4426154225741</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1115.171621552917</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>491</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-125.0262868403675</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1154.210550117814</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0DGVBSLLP_po_data.xlsx
+++ b/po_analysis_by_asin/B0DGVBSLLP_po_data.xlsx
@@ -573,7 +573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -592,16 +592,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -610,12 +600,6 @@
       <c r="B2" t="n">
         <v>389</v>
       </c>
-      <c r="C2" t="n">
-        <v>-277.9026598592412</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1001.56888963263</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -624,12 +608,6 @@
       <c r="B3" t="n">
         <v>402</v>
       </c>
-      <c r="C3" t="n">
-        <v>-233.3172966593288</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1044.412280409216</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -638,12 +616,6 @@
       <c r="B4" t="n">
         <v>408</v>
       </c>
-      <c r="C4" t="n">
-        <v>-233.8048571030846</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1089.06677877703</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -652,12 +624,6 @@
       <c r="B5" t="n">
         <v>414</v>
       </c>
-      <c r="C5" t="n">
-        <v>-260.1288001162836</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1028.330496663663</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -666,12 +632,6 @@
       <c r="B6" t="n">
         <v>421</v>
       </c>
-      <c r="C6" t="n">
-        <v>-197.8365305642837</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1048.630268425087</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -680,12 +640,6 @@
       <c r="B7" t="n">
         <v>427</v>
       </c>
-      <c r="C7" t="n">
-        <v>-219.5501954072548</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1081.307291174481</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -694,12 +648,6 @@
       <c r="B8" t="n">
         <v>440</v>
       </c>
-      <c r="C8" t="n">
-        <v>-197.1934662729422</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1073.335168097889</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -708,12 +656,6 @@
       <c r="B9" t="n">
         <v>446</v>
       </c>
-      <c r="C9" t="n">
-        <v>-204.6801817754492</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1039.171772024048</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -722,12 +664,6 @@
       <c r="B10" t="n">
         <v>453</v>
       </c>
-      <c r="C10" t="n">
-        <v>-188.9747188899827</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1090.869377239449</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -736,12 +672,6 @@
       <c r="B11" t="n">
         <v>459</v>
       </c>
-      <c r="C11" t="n">
-        <v>-182.0605373835199</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1109.057406904045</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -750,12 +680,6 @@
       <c r="B12" t="n">
         <v>465</v>
       </c>
-      <c r="C12" t="n">
-        <v>-138.7903252124046</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1127.633980533924</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -764,12 +688,6 @@
       <c r="B13" t="n">
         <v>472</v>
       </c>
-      <c r="C13" t="n">
-        <v>-170.805277107265</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1056.035828010919</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -778,12 +696,6 @@
       <c r="B14" t="n">
         <v>478</v>
       </c>
-      <c r="C14" t="n">
-        <v>-189.6709322259946</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1102.572895242658</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -792,12 +704,6 @@
       <c r="B15" t="n">
         <v>485</v>
       </c>
-      <c r="C15" t="n">
-        <v>-153.4426154225741</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1115.171621552917</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -805,12 +711,6 @@
       </c>
       <c r="B16" t="n">
         <v>491</v>
-      </c>
-      <c r="C16" t="n">
-        <v>-125.0262868403675</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1154.210550117814</v>
       </c>
     </row>
   </sheetData>
